--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="179">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -848,6 +848,9 @@
   </si>
   <si>
     <t>No new rows are added to database and DB query returns the same row as in previous step (TC19).</t>
+  </si>
+  <si>
+    <t>Test login functionality with no username.</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +1922,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>54</v>
